--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/COLORADO_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/COLORADO_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1304"/>
+  <dimension ref="A1:D1298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C33">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C35">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C39">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C51">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C59">
@@ -1233,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="D65">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="66">
@@ -1350,7 +1350,7 @@
         <v>144</v>
       </c>
       <c r="D74">
-        <v>0.009415457041977247</v>
+        <v>0.009415457041977248</v>
       </c>
     </row>
     <row r="75">
@@ -1381,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="D76">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="77">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C90">
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="D92">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="93">
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="D94">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="95">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C101">
@@ -1738,7 +1738,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C104">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C128">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C129">
@@ -2076,14 +2076,14 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C130">
         <v>14</v>
       </c>
       <c r="D130">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="131">
@@ -2109,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="D132">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="133">
@@ -2180,7 +2180,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C138">
@@ -2296,7 +2296,7 @@
         <v>15</v>
       </c>
       <c r="D146">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="147">
@@ -2484,7 +2484,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C161">
@@ -2658,7 +2658,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C174">
@@ -2684,7 +2684,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C180">
@@ -2852,7 +2852,7 @@
         <v>14</v>
       </c>
       <c r="D188">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="189">
@@ -2928,14 +2928,14 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C194">
         <v>15</v>
       </c>
       <c r="D194">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="195">
@@ -3091,7 +3091,7 @@
         <v>15</v>
       </c>
       <c r="D206">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="207">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C208">
@@ -3162,7 +3162,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C212">
@@ -3208,7 +3208,7 @@
         <v>14</v>
       </c>
       <c r="D215">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="216">
@@ -3253,7 +3253,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C219">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C220">
@@ -3279,7 +3279,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C221">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C222">
@@ -3422,12 +3422,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C232">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C235">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C240">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C251">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C256">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C265">
@@ -3947,14 +3947,14 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C272">
         <v>14</v>
       </c>
       <c r="D272">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="273">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C274">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C283">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C293">
@@ -4285,7 +4285,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C298">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C299">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C300">
@@ -4324,7 +4324,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C301">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C312">
@@ -4485,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C313">
@@ -4498,7 +4498,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C314">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C322">
@@ -4654,7 +4654,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C326">
@@ -4739,7 +4739,7 @@
         <v>15</v>
       </c>
       <c r="D332">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="333">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C334">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C338">
@@ -4836,14 +4836,14 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C340">
         <v>15</v>
       </c>
       <c r="D340">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="341">
@@ -4862,7 +4862,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C342">
@@ -4888,7 +4888,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C344">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C345">
@@ -4953,7 +4953,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C349">
@@ -4973,7 +4973,7 @@
         <v>15</v>
       </c>
       <c r="D350">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="351">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C354">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C356">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C357">
@@ -5082,7 +5082,7 @@
         <v>15</v>
       </c>
       <c r="D358">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C360">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C363">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C366">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C368">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C369">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C375">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C380">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C387">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C389">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C390">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C392">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C407">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C409">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C411">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C413">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C416">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C425">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C429">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C434">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C438">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C441">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C447">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C448">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C449">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C450">
@@ -6289,14 +6289,14 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C451">
         <v>14</v>
       </c>
       <c r="D451">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="452">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C460">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C461">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C466">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C467">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C468">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C472">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C473">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C477">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C480">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C482">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C487">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C492">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C499">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C503">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C504">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C505">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C509">
@@ -7068,7 +7068,7 @@
         <v>14</v>
       </c>
       <c r="D510">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="511">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C513">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C518">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C523">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C525">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C526">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C528">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C530">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C531">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C532">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C535">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C536">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C542">
@@ -7497,7 +7497,7 @@
         <v>15</v>
       </c>
       <c r="D543">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="544">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C545">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C546">
@@ -7549,7 +7549,7 @@
         <v>14</v>
       </c>
       <c r="D547">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="548">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C554">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C556">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C561">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C562">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C565">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C566">
@@ -8093,7 +8093,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C589">
@@ -8555,7 +8555,7 @@
         <v>15</v>
       </c>
       <c r="D624">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="625">
@@ -8808,7 +8808,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C644">
@@ -9010,7 +9010,7 @@
         <v>14</v>
       </c>
       <c r="D659">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="660">
@@ -9216,7 +9216,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C675">
@@ -9268,7 +9268,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C679">
@@ -9281,7 +9281,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C680">
@@ -9403,7 +9403,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C689">
@@ -9416,7 +9416,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C690">
@@ -9455,7 +9455,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C693">
@@ -9546,7 +9546,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C700">
@@ -9694,7 +9694,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C711">
@@ -9772,7 +9772,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C717">
@@ -9798,7 +9798,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C719">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C723">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C725">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C727">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C729">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C730">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C731">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C733">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C734">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C735">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C738">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C741">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C742">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C745">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C764">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C765">
@@ -10421,7 +10421,7 @@
         <v>14</v>
       </c>
       <c r="D766">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C768">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C790">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C798">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C840">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C842">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C843">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C844">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C846">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C847">
@@ -11706,7 +11706,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C865">
@@ -11758,7 +11758,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C869">
@@ -11953,7 +11953,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C884">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C885">
@@ -12005,7 +12005,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C888">
@@ -12044,7 +12044,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C891">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C900">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C901">
@@ -12239,7 +12239,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C906">
@@ -12356,7 +12356,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C915">
@@ -12382,7 +12382,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C917">
@@ -12447,7 +12447,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C922">
@@ -12512,7 +12512,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C927">
@@ -12525,7 +12525,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C928">
@@ -12577,7 +12577,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C932">
@@ -12603,7 +12603,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C934">
@@ -12616,7 +12616,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C935">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C940">
@@ -12753,7 +12753,7 @@
         <v>15</v>
       </c>
       <c r="D945">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="946">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C958">
@@ -12946,7 +12946,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C960">
@@ -13024,7 +13024,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C966">
@@ -13037,7 +13037,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C967">
@@ -13076,7 +13076,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C970">
@@ -13115,7 +13115,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C973">
@@ -13231,7 +13231,7 @@
         <v>14</v>
       </c>
       <c r="D981">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="982">
@@ -13255,7 +13255,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C983">
@@ -13268,7 +13268,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C984">
@@ -13327,7 +13327,7 @@
         <v>14</v>
       </c>
       <c r="D988">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="989">
@@ -13366,7 +13366,7 @@
         <v>15</v>
       </c>
       <c r="D991">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="992">
@@ -13411,7 +13411,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C995">
@@ -13489,7 +13489,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1001">
@@ -13509,13 +13509,13 @@
         <v>15</v>
       </c>
       <c r="D1002">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1003">
@@ -13580,7 +13580,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1008">
@@ -13619,7 +13619,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1011">
@@ -13632,7 +13632,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1012">
@@ -13645,7 +13645,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1013">
@@ -13865,7 +13865,7 @@
         <v>15</v>
       </c>
       <c r="D1029">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="1030">
@@ -13943,7 +13943,7 @@
         <v>14</v>
       </c>
       <c r="D1035">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="1036">
@@ -14188,7 +14188,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1054">
@@ -14221,7 +14221,7 @@
         <v>15</v>
       </c>
       <c r="D1056">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="1057">
@@ -14692,7 +14692,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1092">
@@ -14840,7 +14840,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1103">
@@ -14879,7 +14879,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1106">
@@ -14892,7 +14892,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1107">
@@ -14931,7 +14931,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1110">
@@ -14944,7 +14944,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1111">
@@ -14983,7 +14983,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1114">
@@ -15022,7 +15022,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1117">
@@ -15170,7 +15170,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1128">
@@ -15209,7 +15209,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1131">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1147">
@@ -15560,7 +15560,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1158">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1159">
@@ -15599,7 +15599,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1161">
@@ -15716,7 +15716,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1170">
@@ -15755,7 +15755,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1173">
@@ -15775,7 +15775,7 @@
         <v>14</v>
       </c>
       <c r="D1174">
-        <v>0.0009153916568588989</v>
+        <v>0.0009153916568588988</v>
       </c>
     </row>
     <row r="1175">
@@ -15924,7 +15924,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1186">
@@ -15937,7 +15937,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1187">
@@ -15983,13 +15983,13 @@
         <v>15</v>
       </c>
       <c r="D1190">
-        <v>0.0009807767752059631</v>
+        <v>0.0009807767752059633</v>
       </c>
     </row>
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1191">
@@ -16041,7 +16041,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1195">
@@ -16080,7 +16080,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1198">
@@ -16366,7 +16366,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1220">
@@ -16805,7 +16805,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1253">
@@ -16831,7 +16831,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1255">
@@ -16857,7 +16857,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1257">
@@ -16974,7 +16974,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1266">
@@ -17091,7 +17091,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1275">
@@ -17104,7 +17104,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1276">
@@ -17117,7 +17117,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1277">
@@ -17260,7 +17260,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1288">
@@ -17273,7 +17273,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1289">
@@ -17299,7 +17299,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1291">
@@ -17398,41 +17398,6 @@
       </c>
       <c r="D1298">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
